--- a/biology/Botanique/Begonia_bonus-henricus/Begonia_bonus-henricus.xlsx
+++ b/biology/Botanique/Begonia_bonus-henricus/Begonia_bonus-henricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia bonus-henricus J.J.de Wilde est une espèce de plantes de la famille des Begoniaceae, de la section Squamibegonia, subendémique du Cameroun.
-Elle a été décrite en 1980 par Jan Jacobus Friedrich Egmond de Wilde[2].
+Elle a été décrite en 1980 par Jan Jacobus Friedrich Egmond de Wilde.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique bonus-henricus rend hommage au père Henri François Bon (1844-1895), botaniste amateur français, collaborateur du Muséum national d'histoire naturelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique bonus-henricus rend hommage au père Henri François Bon (1844-1895), botaniste amateur français, collaborateur du Muséum national d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe hémi-épiphyte qui pousse sur les troncs des arbres dans les forêts de nuage[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe hémi-épiphyte qui pousse sur les troncs des arbres dans les forêts de nuage.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun[4], sur plusieurs sites dans la Région du Sud-Ouest (monts Rumpi, monts Bakossi) et un emplacement dans la Région du Sud[5]. En 1998, elle est également signalée en Guinée équatoriale sur l'île de Bioko[6].
-Assez commune, mais sur un petit territoire menacé, elle est considérée comme une « espèce en danger »[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, sur plusieurs sites dans la Région du Sud-Ouest (monts Rumpi, monts Bakossi) et un emplacement dans la Région du Sud. En 1998, elle est également signalée en Guinée équatoriale sur l'île de Bioko.
+Assez commune, mais sur un petit territoire menacé, elle est considérée comme une « espèce en danger ».
 </t>
         </is>
       </c>
